--- a/biology/Botanique/John_MacGillivray/John_MacGillivray.xlsx
+++ b/biology/Botanique/John_MacGillivray/John_MacGillivray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John MacGillivray est un explorateur et un botaniste britannique, né le 18 décembre 1821 à Aberdeen et mort le 6 juin 1867 à Sydney.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de l’ornithologue William MacGillivray (1796-1852). John MacGillivray prend part à trois voyages d’exploration entrepris par la Royal Navy dans le Pacifique.
 En 1842, il embarque comme naturaliste à bord du HMS Fly, envoyé pour étudier le détroit de Torres, entre la Nouvelle-Guinée et l’Australie ainsi que l’est de la côte de ce dernier pays. Il revient en Grande-Bretagne en 1846.
